--- a/downloads/KB-Liste Maststiere.xlsx
+++ b/downloads/KB-Liste Maststiere.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Anna\HP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5637C651-DB4E-4E42-86F3-68BBCC8A0F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99CFD2D-3F92-4286-ABAB-D41AF0144F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{30F72A06-0433-4803-903C-32456099E266}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
   <si>
     <t>Maststiere</t>
   </si>
@@ -248,12 +248,6 @@
     <t>BB</t>
   </si>
   <si>
-    <t>Nitrate</t>
-  </si>
-  <si>
-    <t>grosse Kalber zum Teil</t>
-  </si>
-  <si>
     <t>Silian-9</t>
   </si>
   <si>
@@ -292,6 +286,15 @@
   </si>
   <si>
     <t>Rd geeignet, Geburtsgewicht leicht</t>
+  </si>
+  <si>
+    <t>Demi</t>
+  </si>
+  <si>
+    <t>Lian-1</t>
+  </si>
+  <si>
+    <t>Limousin (Factor), Angus (Perforner)</t>
   </si>
 </sst>
 </file>
@@ -772,19 +775,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A39852-EB24-4670-B93E-17110F5E78D8}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -793,7 +796,7 @@
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="24">
-        <v>44434</v>
+        <v>44519</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1103,7 +1106,7 @@
         <v>37</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" s="16">
         <v>104</v>
@@ -1131,13 +1134,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -1150,7 +1153,7 @@
         <v>34</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28" s="16">
         <v>110</v>
@@ -1302,17 +1305,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="16">
-        <v>98</v>
-      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="13" t="s">
         <v>17</v>
       </c>
@@ -1326,13 +1325,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>17</v>
@@ -1342,20 +1341,33 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="A41" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/downloads/KB-Liste Maststiere.xlsx
+++ b/downloads/KB-Liste Maststiere.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Anna\HP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99CFD2D-3F92-4286-ABAB-D41AF0144F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4393D664-0F97-4573-959E-8AE44ECF7DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{30F72A06-0433-4803-903C-32456099E266}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>Geburtsgewicht normal, Fleischigkeit gut</t>
   </si>
   <si>
-    <t>Madison</t>
-  </si>
-  <si>
     <t>Aubrac</t>
   </si>
   <si>
@@ -248,9 +245,6 @@
     <t>BB</t>
   </si>
   <si>
-    <t>Silian-9</t>
-  </si>
-  <si>
     <t>Mischsperma</t>
   </si>
   <si>
@@ -295,6 +289,12 @@
   </si>
   <si>
     <t>Limousin (Factor), Angus (Perforner)</t>
+  </si>
+  <si>
+    <t>Marquis</t>
+  </si>
+  <si>
+    <t>Silian-10</t>
   </si>
 </sst>
 </file>
@@ -458,9 +458,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -777,26 +777,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A39852-EB24-4670-B93E-17110F5E78D8}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24">
-        <v>44519</v>
+      <c r="B1" s="24"/>
+      <c r="C1" s="22">
+        <v>44533</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -926,17 +926,17 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -948,32 +948,32 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="7">
         <v>89</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="11">
         <v>94</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -985,13 +985,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="C16" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D16" s="11">
         <v>98</v>
@@ -1002,13 +1002,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D17" s="7">
         <v>106</v>
@@ -1026,27 +1026,27 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D19" s="7">
         <v>96</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="7"/>
@@ -1061,17 +1061,17 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1083,13 +1083,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="C24" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="D24" s="15">
         <v>115</v>
@@ -1100,13 +1100,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="C25" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D25" s="16">
         <v>104</v>
@@ -1117,13 +1117,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D26" s="7">
         <v>113</v>
@@ -1134,26 +1134,26 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D28" s="16">
         <v>110</v>
@@ -1164,13 +1164,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D29" s="10">
         <v>115</v>
@@ -1181,13 +1181,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="D30" s="18">
         <v>104</v>
@@ -1198,13 +1198,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="10">
         <v>113</v>
@@ -1215,13 +1215,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="D32" s="18">
         <v>110</v>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="18">
         <v>106</v>
@@ -1249,13 +1249,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" s="16">
         <v>100</v>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" s="10">
         <v>104</v>
@@ -1290,30 +1290,30 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="11">
         <v>99</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="16"/>
       <c r="E38" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1325,30 +1325,30 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D40" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="21"/>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>

--- a/downloads/KB-Liste Maststiere.xlsx
+++ b/downloads/KB-Liste Maststiere.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Anna\HP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4393D664-0F97-4573-959E-8AE44ECF7DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33685F89-FDAC-430C-9FC4-90C1ACD14876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{30F72A06-0433-4803-903C-32456099E266}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     <t>Liscann</t>
   </si>
   <si>
-    <t>Mongolito</t>
-  </si>
-  <si>
     <t>Eringer</t>
   </si>
   <si>
@@ -288,13 +285,16 @@
     <t>Lian-1</t>
   </si>
   <si>
-    <t>Limousin (Factor), Angus (Perforner)</t>
-  </si>
-  <si>
     <t>Marquis</t>
   </si>
   <si>
     <t>Silian-10</t>
+  </si>
+  <si>
+    <t>Crapule</t>
+  </si>
+  <si>
+    <t>Limousin (Factor), Angus (Performer)</t>
   </si>
 </sst>
 </file>
@@ -777,17 +777,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A39852-EB24-4670-B93E-17110F5E78D8}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -796,7 +796,7 @@
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="22">
-        <v>44533</v>
+        <v>44575</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -926,7 +926,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="11" t="s">
@@ -1083,13 +1083,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="C24" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="D24" s="15">
         <v>115</v>
@@ -1100,13 +1100,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="C25" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="16">
         <v>104</v>
@@ -1117,13 +1117,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D26" s="7">
         <v>113</v>
@@ -1134,26 +1134,26 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="16">
         <v>110</v>
@@ -1164,13 +1164,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D29" s="10">
         <v>115</v>
@@ -1181,13 +1181,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="D30" s="18">
         <v>104</v>
@@ -1198,13 +1198,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="10">
         <v>113</v>
@@ -1215,13 +1215,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="D32" s="18">
         <v>110</v>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="18">
         <v>106</v>
@@ -1249,13 +1249,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="16">
         <v>100</v>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" s="10">
         <v>104</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="11">
@@ -1305,10 +1305,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="16"/>
@@ -1325,13 +1325,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>16</v>
@@ -1342,13 +1342,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="21"/>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>

--- a/downloads/KB-Liste Maststiere.xlsx
+++ b/downloads/KB-Liste Maststiere.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Stiere\Pdf Homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE82D20E-F5AD-41D2-92F4-DB55D5FF4782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CA37F15-14CE-4A8C-A3A9-ECCFCC2F31E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{970D8730-B61C-4ABB-81D8-C5E0B67C70A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D7894E2-7AF0-4F0A-A6A5-63781E10187A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
   <si>
     <t>Maststiere</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t xml:space="preserve">Geburtsablauf gut </t>
+  </si>
+  <si>
+    <t>Haribo PP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geburtsgewicht normal, Hohe Fettabdeckung </t>
   </si>
   <si>
     <t>Jakob</t>
@@ -308,7 +314,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,12 +347,6 @@
     <font>
       <i/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -427,11 +427,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -442,6 +447,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -457,17 +468,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -783,19 +783,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7521BE-09B2-4098-AF1F-D8EC17424C43}">
-  <dimension ref="A1:E44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C7CA2C-9755-461B-A86B-B8499B0C0AD6}">
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -803,112 +804,112 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="8">
-        <v>44995</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="C1" s="10">
+        <v>45051</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="11">
         <v>98</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="11">
         <v>109</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="11">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="13">
         <v>98</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="13">
         <v>109</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="13">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -918,97 +919,97 @@
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="14">
         <v>103</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="14">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="19"/>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="18">
+      <c r="D13" s="11">
         <v>89</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="11">
+      <c r="D14" s="14">
         <v>94</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="14">
         <v>98</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="14">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -1018,357 +1019,380 @@
       <c r="C17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="11">
         <v>106</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="11">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="17">
         <v>115</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="17">
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="18">
         <v>104</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="18">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="18">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E25" s="18">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>32</v>
+      <c r="B26" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="11">
+        <v>97</v>
+      </c>
+      <c r="E26" s="11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="11">
         <v>93</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E27" s="11">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="6" t="s">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="13">
+      <c r="C28" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="18">
         <v>110</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="18">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="6" t="s">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="18">
+        <v>100</v>
+      </c>
+      <c r="E29" s="18">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="D31" s="19"/>
+      <c r="E31" s="18"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="C32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="18">
+        <v>100</v>
+      </c>
+      <c r="E35" s="18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="13">
-        <v>100</v>
-      </c>
-      <c r="E34" s="13">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="C37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="10">
+      <c r="D37" s="13">
         <v>104</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E37" s="14">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>56</v>
-      </c>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="11">
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="14">
         <v>99</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E39" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="12" t="s">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="18">
+        <v>92</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="3" t="s">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="B42" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>59</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="16"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="D42" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
+      <c r="B43" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
